--- a/ORG/Realisasi Anggaran LKMM-D 2025.xlsx
+++ b/ORG/Realisasi Anggaran LKMM-D 2025.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Himatif\RAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tisa\Tisa\ORG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13B22B-D54F-49AE-8486-517E90F8838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690D0362-D609-4547-B63C-566808248C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E24040D-CA6B-4350-995C-5A28B0442034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -196,6 +187,54 @@
   </si>
   <si>
     <t>TOTAL PENGELUARAN</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Sekretaris</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Sie. PDD</t>
+  </si>
+  <si>
+    <t>Benner 3x1</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Sie. Konsumsi</t>
+  </si>
+  <si>
+    <t>Toko Anis</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Sie. Acara</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Sie. Logistik</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Sie. Kesehatan</t>
+  </si>
+  <si>
+    <t>Alfamart</t>
+  </si>
+  <si>
+    <t>Buah Pir</t>
   </si>
 </sst>
 </file>
@@ -203,12 +242,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +277,13 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -259,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,12 +435,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,20 +460,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,33 +482,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,16 +529,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D7EDF-6B93-47CD-B46C-BE36398E0C04}">
-  <dimension ref="A5:K36"/>
+  <dimension ref="A5:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="54" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,26 +926,33 @@
     <col min="7" max="7" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="26.7265625" customWidth="1"/>
     <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="16" t="s">
@@ -841,18 +962,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
       <c r="J6" s="16" t="s">
         <v>53</v>
       </c>
@@ -860,7 +981,7 @@
         <v>659000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -884,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -908,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -932,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -954,8 +1075,16 @@
       <c r="G10" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -978,8 +1107,28 @@
       <c r="G11" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1002,8 +1151,20 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1026,8 +1187,23 @@
       <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46">
+        <f>SUM(Q14)</f>
+        <v>120000</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1050,8 +1226,29 @@
       <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L14" s="37"/>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>60000</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>O14*P14</f>
+        <v>120000</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -1074,8 +1271,16 @@
       <c r="G15" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1098,8 +1303,23 @@
       <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48">
+        <f>SUM(Q17:Q19)</f>
+        <v>92000</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -1122,8 +1342,29 @@
       <c r="G17" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L17" s="18"/>
+      <c r="M17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4</v>
+      </c>
+      <c r="P17" s="8">
+        <v>5000</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>P17*O17</f>
+        <v>20000</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -1146,8 +1387,29 @@
       <c r="G18" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L18" s="18"/>
+      <c r="M18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="7">
+        <v>4</v>
+      </c>
+      <c r="P18" s="8">
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>P18*O18</f>
+        <v>12000</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1170,8 +1432,28 @@
       <c r="G19" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L19" s="18"/>
+      <c r="M19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="8">
+        <v>60000</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>60000</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="39"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1194,8 +1476,16 @@
       <c r="G20" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -1218,8 +1508,23 @@
       <c r="G21" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="48">
+        <f>SUM(Q22:Q24)</f>
+        <v>116500</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -1242,8 +1547,29 @@
       <c r="G22" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L22" s="18"/>
+      <c r="M22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="7">
+        <v>5</v>
+      </c>
+      <c r="P22" s="8">
+        <v>5000</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>O22*P22</f>
+        <v>25000</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -1266,8 +1592,29 @@
       <c r="G23" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L23" s="18"/>
+      <c r="M23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="7">
+        <v>3</v>
+      </c>
+      <c r="P23" s="8">
+        <v>5500</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>P23*O23</f>
+        <v>16500</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -1290,8 +1637,29 @@
       <c r="G24" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L24" s="18"/>
+      <c r="M24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="7">
+        <v>5</v>
+      </c>
+      <c r="P24" s="8">
+        <v>15000</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24" si="2">P24*O24</f>
+        <v>75000</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1314,8 +1682,16 @@
       <c r="G25" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L25" s="43"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -1338,8 +1714,23 @@
       <c r="G26" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="49">
+        <f>SUM(Q27:Q37)</f>
+        <v>202000</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1362,8 +1753,29 @@
       <c r="G27" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2</v>
+      </c>
+      <c r="P27" s="12">
+        <v>3000</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" ref="Q27:Q37" si="3">P27*O27</f>
+        <v>6000</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1380,14 +1792,35 @@
         <v>2000</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" ref="F28" si="2">E28*D28</f>
+        <f t="shared" ref="F28" si="4">E28*D28</f>
         <v>4000</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="7">
+        <v>6</v>
+      </c>
+      <c r="P28" s="12">
+        <v>9000</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1404,14 +1837,35 @@
         <v>6500</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" ref="F29:F33" si="3">D29*E29</f>
+        <f t="shared" ref="F29:F33" si="5">D29*E29</f>
         <v>6500</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L29" s="11"/>
+      <c r="M29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P29" s="14">
+        <v>16000</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>O29*P29</f>
+        <v>8000</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -1434,8 +1888,29 @@
       <c r="G30" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L30" s="11"/>
+      <c r="M30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="14">
+        <v>28000</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" ref="Q30:Q37" si="6">O30*P30</f>
+        <v>14000</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1458,8 +1933,29 @@
       <c r="G31" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L31" s="11"/>
+      <c r="M31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="14">
+        <v>28000</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -1482,8 +1978,29 @@
       <c r="G32" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L32" s="11"/>
+      <c r="M32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="14">
+        <v>36000</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="6"/>
+        <v>18000</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -1500,47 +2017,468 @@
         <v>9000</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="14">
+        <v>28000</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1</v>
+      </c>
+      <c r="P34" s="14">
+        <v>2000</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="36"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21">
         <f>SUM(F7:F33)</f>
         <v>659000</v>
       </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="7">
+        <v>6</v>
+      </c>
+      <c r="P35" s="14">
+        <v>7000</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="6"/>
+        <v>42000</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="7">
+        <v>8</v>
+      </c>
+      <c r="P36" s="14">
+        <v>2500</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="R36" s="10"/>
+      <c r="S36" s="36"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1</v>
+      </c>
+      <c r="P37" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="49">
+        <f>SUM(Q40:Q43)</f>
+        <v>64000</v>
+      </c>
+      <c r="R39" s="10"/>
+      <c r="S39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L40" s="18"/>
+      <c r="M40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="7">
+        <v>3</v>
+      </c>
+      <c r="P40" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q40" s="12">
+        <f>O40*P40</f>
+        <v>30000</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L41" s="18"/>
+      <c r="M41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12">
+        <v>5000</v>
+      </c>
+      <c r="Q41" s="12">
+        <f>O41*P41</f>
+        <v>5000</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L42" s="18"/>
+      <c r="M42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>25000</v>
+      </c>
+      <c r="Q42" s="12">
+        <f>O42*P42</f>
+        <v>25000</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="36"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L43" s="11"/>
+      <c r="M43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="7">
+        <v>2</v>
+      </c>
+      <c r="P43" s="12">
+        <v>2000</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" ref="Q43" si="7">P43*O43</f>
+        <v>4000</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="36"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L45" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="49">
+        <f>SUM(Q46:Q50)</f>
+        <v>64500</v>
+      </c>
+      <c r="R45" s="10"/>
+      <c r="S45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L46" s="11"/>
+      <c r="M46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12">
+        <v>6500</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" ref="Q46:Q50" si="8">O46*P46</f>
+        <v>6500</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" s="36"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L47" s="11"/>
+      <c r="M47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="7">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12">
+        <v>11000</v>
+      </c>
+      <c r="Q47" s="12">
+        <f>O47*P47</f>
+        <v>11000</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" s="36"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12">
+        <v>9000</v>
+      </c>
+      <c r="Q48" s="12">
+        <f>O48*P48</f>
+        <v>9000</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="36"/>
+    </row>
+    <row r="49" spans="12:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L49" s="11"/>
+      <c r="M49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="7">
+        <v>5</v>
+      </c>
+      <c r="P49" s="8">
+        <v>2200</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>P49*O49</f>
+        <v>11000</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="36"/>
+    </row>
+    <row r="50" spans="12:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="7">
+        <v>3</v>
+      </c>
+      <c r="P50" s="12">
+        <v>9000</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="8"/>
+        <v>27000</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="36"/>
+    </row>
+    <row r="51" spans="12:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+    </row>
+    <row r="52" spans="12:19" x14ac:dyDescent="0.35">
+      <c r="L52" s="20"/>
+      <c r="M52" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="51">
+        <f>SUM(Q13,Q16,Q21,Q26,Q39,Q45,)</f>
+        <v>659000</v>
+      </c>
+      <c r="R52" s="51"/>
+    </row>
+    <row r="53" spans="12:19" x14ac:dyDescent="0.35">
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="33">
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:P53"/>
+    <mergeCell ref="Q52:R53"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="F35:G36"/>
